--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748725.8496482822</v>
+        <v>834093.1556815422</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367732</v>
+        <v>6542240.186367735</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9165568.271686181</v>
+        <v>9165568.271686183</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>232.2791855053265</v>
       </c>
       <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>116.9725659584294</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98.4170857612723</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>75.32976229515084</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>32.95673252054282</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>127.2474856261182</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>154.868469629334</v>
+        <v>190.6384919154523</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323767</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539828</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>22.57308467856235</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253648</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813357</v>
+        <v>33.74703566813351</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>179.0850583570496</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1038,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.31538438149285</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -1072,7 +1074,7 @@
         <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.6998850700518</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887345</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.5187093525395</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>279.7359080595637</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>42.68052496925149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>55.94174219837196</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.78116022224987</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>247.498325617578</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3606546765277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1375494785993</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.2429621606558</v>
       </c>
       <c r="H17" t="n">
-        <v>126.7498226612777</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>108.3699026724444</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>203.0714952237261</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>57.92518451681195</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>210.1089145855752</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>216.7787438998075</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>310.0360877169932</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>370.0648965483574</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>149.2419515106229</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>19.58945082857502</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>92.47445699814216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>106.5867442799587</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>13.02719212039586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>197.2040098788578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>127.5532942524965</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3202,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.02719212039609</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>34.98723076369677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>131.6958161938075</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>84.36427925043594</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>68.85005436466994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>378.027202448392</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>252.9985976639354</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492426</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.7965692041388</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>96.56995064598212</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>128.2808324720654</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>69.16121449564825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>57.89934023899456</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>34.82037800654545</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>46.50187133648316</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>176.7697821123584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="D2" t="n">
         <v>788.4778634388466</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>522.1002068716687</v>
       </c>
-      <c r="D2" t="n">
-        <v>287.4747669672984</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.09711040012049</v>
-      </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4331,7 +4333,7 @@
         <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052543</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="C3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="D3" t="n">
-        <v>424.5953836217251</v>
+        <v>97.18777938512136</v>
       </c>
       <c r="E3" t="n">
-        <v>265.3579286162696</v>
+        <v>97.18777938512136</v>
       </c>
       <c r="F3" t="n">
-        <v>265.3579286162696</v>
+        <v>97.18777938512136</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>97.18777938512136</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>26.30736892571879</v>
       </c>
       <c r="K3" t="n">
-        <v>121.653531464967</v>
+        <v>100.991389695173</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252636</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4431,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="Y3" t="n">
-        <v>424.5953836217251</v>
+        <v>246.1221890463726</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.014341865703</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="C4" t="n">
-        <v>273.014341865703</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="D4" t="n">
-        <v>273.014341865703</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="E4" t="n">
-        <v>273.014341865703</v>
+        <v>460.5172922006041</v>
       </c>
       <c r="F4" t="n">
-        <v>273.014341865703</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="G4" t="n">
-        <v>273.014341865703</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4495,10 +4497,10 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4531,7 +4533,7 @@
         <v>493.8069210092332</v>
       </c>
       <c r="Y4" t="n">
-        <v>273.014341865703</v>
+        <v>493.8069210092332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.2982339967454</v>
+        <v>1049.492102159346</v>
       </c>
       <c r="C5" t="n">
-        <v>190.2982339967454</v>
+        <v>1049.492102159346</v>
       </c>
       <c r="D5" t="n">
-        <v>190.2982339967454</v>
+        <v>1049.492102159346</v>
       </c>
       <c r="E5" t="n">
-        <v>190.2982339967454</v>
+        <v>1049.492102159346</v>
       </c>
       <c r="F5" t="n">
-        <v>33.86543639135746</v>
+        <v>856.9279689114147</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135746</v>
+        <v>440.4816599244637</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135746</v>
+        <v>128.8280277705477</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135746</v>
+        <v>33.86543639135755</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780284</v>
+        <v>108.4604468780288</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818705</v>
+        <v>270.9975490818714</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374005</v>
+        <v>509.5409587374018</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176512</v>
+        <v>806.635901817653</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058974</v>
+        <v>1113.151960058976</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836702</v>
+        <v>1389.251120836705</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921694</v>
+        <v>1590.394365921698</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567873</v>
+        <v>1693.271819567877</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567873</v>
+        <v>1693.271819567877</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567873</v>
+        <v>1693.271819567877</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567873</v>
+        <v>1693.271819567877</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567873</v>
+        <v>1439.631434135158</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567873</v>
+        <v>1439.631434135158</v>
       </c>
       <c r="W5" t="n">
-        <v>1340.503164297759</v>
+        <v>1439.631434135158</v>
       </c>
       <c r="X5" t="n">
-        <v>967.0374060366789</v>
+        <v>1439.631434135158</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.8980740608672</v>
+        <v>1049.492102159346</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>780.1602615987517</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765399</v>
+        <v>67.95335120765402</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135746</v>
+        <v>33.86543639135755</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324485</v>
+        <v>184.3059916402499</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650506</v>
+        <v>306.233120852056</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877863</v>
+        <v>516.5017339747922</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445282</v>
+        <v>781.2321559315346</v>
       </c>
       <c r="N6" t="n">
-        <v>942.547724356257</v>
+        <v>1067.377849343264</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530455</v>
+        <v>1306.925460517463</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699129</v>
+        <v>1479.850471131932</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232586</v>
+        <v>1693.07801923259</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567873</v>
+        <v>1693.271819567877</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567873</v>
+        <v>1550.180157843123</v>
       </c>
       <c r="T6" t="n">
-        <v>1497.665933903212</v>
+        <v>1369.286159502669</v>
       </c>
       <c r="U6" t="n">
-        <v>1269.549726558696</v>
+        <v>1141.169952158153</v>
       </c>
       <c r="V6" t="n">
-        <v>1034.397618326953</v>
+        <v>906.0178439264105</v>
       </c>
       <c r="W6" t="n">
-        <v>780.1602615987517</v>
+        <v>651.7804871982088</v>
       </c>
       <c r="X6" t="n">
-        <v>780.1602615987517</v>
+        <v>443.928986992676</v>
       </c>
       <c r="Y6" t="n">
-        <v>780.1602615987517</v>
+        <v>236.168688227722</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>843.472861483443</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="C7" t="n">
-        <v>674.5366785555361</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="D7" t="n">
-        <v>617.6524519075635</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7393583251704</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="F7" t="n">
         <v>469.7393583251704</v>
@@ -4717,58 +4719,58 @@
         <v>301.4202559246572</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590866</v>
+        <v>149.7239061590867</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135746</v>
+        <v>33.86543639135755</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652229</v>
+        <v>36.28512133652249</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128604</v>
+        <v>170.0982437128608</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119598</v>
+        <v>396.8594047119605</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191554</v>
+        <v>646.3363778191563</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361674</v>
+        <v>895.3159625361685</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021384</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580469</v>
+        <v>1268.828805580471</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397019</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397017</v>
+        <v>1178.322155933651</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397017</v>
+        <v>975.8964400230212</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.46241238146</v>
+        <v>751.4966890074642</v>
       </c>
       <c r="U7" t="n">
-        <v>1071.46241238146</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.46241238146</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.46241238146</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="X7" t="n">
-        <v>843.472861483443</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="Y7" t="n">
-        <v>843.472861483443</v>
+        <v>616.6293058230808</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.370234799863</v>
+        <v>1857.810682795506</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1488.848165855094</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1130.582467248344</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>744.7942146500993</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>333.8083098604918</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>333.8083098604918</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4808,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X8" t="n">
-        <v>1248.370234799863</v>
+        <v>1857.810682795506</v>
       </c>
       <c r="Y8" t="n">
-        <v>1248.370234799863</v>
+        <v>1857.810682795506</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.916702154261</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488054</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756905</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182526</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.6740181205796</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458211</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131277087194</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.1371474485143</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C10" t="n">
-        <v>825.1371474485143</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4996,16 +4998,16 @@
         <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>825.1371474485143</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>825.1371474485143</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>825.1371474485143</v>
+        <v>53.04593830764946</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.1371474485143</v>
+        <v>51.24678656800313</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1458.811090838973</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1089.848573898562</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>731.5828752918112</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>731.5828752918112</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>731.5828752918112</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>316.5104251368077</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139987</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2235.550262878907</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.410930903095</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218339</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1032.061124352531</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C14" t="n">
-        <v>663.0986074121195</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D14" t="n">
-        <v>304.832908805369</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2740.719419668211</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>2367.253661407131</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416653</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>986.3598813409312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>696.9427113039706</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>468.9531604059532</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>248.1605812624231</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D17" t="n">
-        <v>194.5422403324639</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E17" t="n">
-        <v>194.5422403324639</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F17" t="n">
-        <v>194.5422403324639</v>
+        <v>764.341133147311</v>
       </c>
       <c r="G17" t="n">
-        <v>194.5422403324639</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5534,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1032.142045667885</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5701,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.485941467111</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.608663915319</v>
+        <v>1241.383074592754</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.924175709432</v>
+        <v>986.6985863868674</v>
       </c>
       <c r="W19" t="n">
-        <v>1480.924175709432</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="X19" t="n">
-        <v>1252.934624811415</v>
+        <v>697.2814163499067</v>
       </c>
       <c r="Y19" t="n">
-        <v>1032.142045667885</v>
+        <v>697.2814163499067</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>125.0224038229026</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5756,10 +5758,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.60582160917</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5817,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>994.2880032601528</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3518203322459</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2351809199101</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E22" t="n">
-        <v>527.322087337517</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F22" t="n">
-        <v>380.4321398396066</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.46409084602</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415546</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U22" t="n">
-        <v>1615.697475415546</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V22" t="n">
-        <v>1615.697475415546</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="W22" t="n">
-        <v>1615.697475415546</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="X22" t="n">
-        <v>1396.729047233923</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="Y22" t="n">
-        <v>1175.936468090393</v>
+        <v>2320.988771034578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796256</v>
+        <v>1832.276849100054</v>
       </c>
       <c r="C23" t="n">
-        <v>552.807938939214</v>
+        <v>1463.314332159642</v>
       </c>
       <c r="D23" t="n">
-        <v>194.5422403324635</v>
+        <v>1105.048633552892</v>
       </c>
       <c r="E23" t="n">
-        <v>66.51211643218342</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>719.2603809546476</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>2218.876689164176</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>1640.204086189706</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>1471.267903261799</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.46409084602</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.46409084602</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.46409084602</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>2270.634681061493</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>2042.645130163475</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>1821.852551019945</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>934.5673701373257</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>934.5673701373257</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6227,7 +6229,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6291,7 +6293,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
@@ -6303,34 +6305,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="V28" t="n">
-        <v>1513.842048484845</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="W28" t="n">
-        <v>1513.842048484845</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>2671.573418792725</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218339</v>
@@ -6476,7 +6478,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>3215.315153136265</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X29" t="n">
-        <v>3121.906610713899</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1914.135768168901</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>880.2242361621292</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2175.400891308157</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>195.3538277983415</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810557</v>
@@ -6725,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2562.000731372279</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>2405.758056700423</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>2236.821873772516</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>2086.70523436018</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>1938.792140777787</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>1791.902193279877</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>1624.199356654596</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>1477.982169872454</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V34" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.501411349798</v>
+        <v>3036.18865157221</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>2808.199100674193</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>2587.406521530663</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1175.344218980305</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1175.344218980305</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>817.078520373555</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>817.078520373555</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3034.411630306084</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2703.348742962513</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2350.580087692399</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>1772.140244377708</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>1603.204061449801</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>1603.204061449801</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>1603.204061449801</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>1603.204061449801</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>2946.672497492342</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>2691.988009286456</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>2402.570839249495</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>2174.581288351477</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>1953.788709207947</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1685.375546116517</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C38" t="n">
-        <v>1316.413029176106</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D38" t="n">
-        <v>1316.413029176106</v>
+        <v>779.1356044021984</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1356044021984</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1356044021984</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0631542471949</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7175,7 +7177,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7205,19 +7207,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X38" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y38" t="n">
-        <v>2071.975386180639</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7253,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7333,16 +7335,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V40" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.109083729354</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.146566788942</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D41" t="n">
-        <v>791.8808681821918</v>
+        <v>1095.404020490883</v>
       </c>
       <c r="E41" t="n">
-        <v>406.0926155839475</v>
+        <v>709.6157678926384</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030308</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3228.060416916259</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T41" t="n">
-        <v>3022.082669300481</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U41" t="n">
-        <v>3022.082669300481</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V41" t="n">
-        <v>3022.082669300481</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W41" t="n">
-        <v>2669.314014030367</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.848255769287</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.708923793476</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="42">
@@ -7479,37 +7481,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7594,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971664</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.501411349798</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796256</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2862738200351</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1238.03887196831</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>852.2506193700656</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>441.264714580458</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882606</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>7.314107919012507</v>
       </c>
       <c r="K3" t="n">
-        <v>26.13373767211345</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157911</v>
+        <v>25.82445471157885</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>65.05511571131743</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>149.0413681067589</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780637</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>162.007309792134</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4038561153564</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>289.903479783282</v>
       </c>
       <c r="G2" t="n">
         <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22629,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>37.60563382515114</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>24.14955797605892</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22711,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>113.4772301260263</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>25.13467370973861</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>252.0075761123774</v>
+        <v>216.2375538262591</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539842</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>140.1815018398512</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22860,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>150.1354143097534</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253646</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22911,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.56476845096492</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22942,16 +22944,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.30008863671949</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887345</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>152.7264072049359</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23005,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.28264450284166</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>327.0505757092175</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23182,22 +23184,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>92.67373081984039</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>216.8034931298449</v>
       </c>
     </row>
     <row r="11">
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>47.10943876974244</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>187.5697153957341</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>97.95568926599611</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>105.0742887270136</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>14.6787634927976</v>
       </c>
       <c r="H17" t="n">
-        <v>167.8579417260428</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>58.87691842618348</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>16.47745405244314</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>236.6825798705085</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>42.02872873825282</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>8.930911489229686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>100.8856379364603</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.2354048423642</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>136.96988669499</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>206.1202045604621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>42.02872873825365</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>239.1104512034321</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>168.0688818921498</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>279.322751489215</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>83.32522828944201</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>251.5357675728942</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>251.0380254696731</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>166.630892708466</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>29.02894347705848</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25366,10 +25368,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>183.2875889591581</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25394,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.90316762386982</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>41.60916672338507</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25445,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.074288727013</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493146</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>12.61781114219372</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410381</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>217.3617838409427</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>307.373551532013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>376.101347646908</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.7449497621447</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>109.7532162242326</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514928.0178836062</v>
+        <v>514928.0178836063</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623484.8426188084</v>
+        <v>623484.8426188091</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770100.8188680861</v>
+        <v>770100.8188680862</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845811.9398839652</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839656</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839656</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839656</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>214164.910256968</v>
       </c>
       <c r="C2" t="n">
-        <v>259834.929234416</v>
+        <v>259834.9292344164</v>
       </c>
       <c r="D2" t="n">
         <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194668</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
         <v>358046.9539194667</v>
       </c>
       <c r="J2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="L2" t="n">
         <v>358046.9539194667</v>
       </c>
-      <c r="K2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="L2" t="n">
-        <v>358046.9539194666</v>
-      </c>
       <c r="M2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26366,13 +26368,13 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739517</v>
+        <v>176672.6241739529</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381906</v>
+        <v>223886.309381905</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171902</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26392,16 @@
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640838</v>
+        <v>41076.98154640866</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946786</v>
+        <v>54988.29121946784</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>15438.57384129047</v>
       </c>
       <c r="C4" t="n">
-        <v>17555.97061758841</v>
+        <v>17555.97061758843</v>
       </c>
       <c r="D4" t="n">
-        <v>20992.13942082912</v>
+        <v>20992.13942082914</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26433,19 +26435,19 @@
         <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="J4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="L4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="M4" t="n">
         <v>10990.29103211609</v>
@@ -26454,7 +26456,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211607</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26470,22 +26472,22 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923126</v>
+        <v>75746.87167923135</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26503,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>-544409.4473797817</v>
       </c>
       <c r="C6" t="n">
-        <v>-10140.53723635539</v>
+        <v>-10140.53723635629</v>
       </c>
       <c r="D6" t="n">
-        <v>-16546.00922355591</v>
+        <v>-16546.00922355488</v>
       </c>
       <c r="E6" t="n">
-        <v>90677.34250876709</v>
+        <v>90677.34250876657</v>
       </c>
       <c r="F6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259574</v>
       </c>
       <c r="G6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259573</v>
       </c>
       <c r="H6" t="n">
-        <v>272750.3223259574</v>
+        <v>272750.3223259571</v>
       </c>
       <c r="I6" t="n">
         <v>272750.3223259573</v>
@@ -26546,19 +26548,19 @@
         <v>203751.1679068432</v>
       </c>
       <c r="K6" t="n">
-        <v>231673.3407795488</v>
+        <v>231673.3407795485</v>
       </c>
       <c r="L6" t="n">
-        <v>217762.0311064894</v>
+        <v>217762.0311064895</v>
       </c>
       <c r="M6" t="n">
-        <v>225198.0565325422</v>
+        <v>225198.0565325425</v>
       </c>
       <c r="N6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.322325957</v>
       </c>
       <c r="O6" t="n">
-        <v>272750.3223259572</v>
+        <v>272750.3223259574</v>
       </c>
       <c r="P6" t="n">
         <v>272750.3223259572</v>
@@ -26738,7 +26740,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908075</v>
+        <v>751.4467899908084</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26771,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26790,22 +26792,22 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919682</v>
+        <v>423.3179548919694</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
@@ -26817,19 +26819,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213292</v>
+        <v>137.39177622133</v>
       </c>
       <c r="D3" t="n">
-        <v>182.618102126732</v>
+        <v>182.6181021267311</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904621</v>
+        <v>159.6040748904632</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080706</v>
+        <v>217.2668772080697</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904618</v>
+        <v>159.6040748904629</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080709</v>
+        <v>217.2668772080701</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904621</v>
+        <v>159.6040748904632</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080706</v>
+        <v>217.2668772080697</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053495</v>
+        <v>3.020891618053499</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339037</v>
+        <v>30.9377062833904</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050075</v>
+        <v>116.4629241050076</v>
       </c>
       <c r="J5" t="n">
-        <v>256.394399967768</v>
+        <v>256.3943999677684</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599726</v>
+        <v>384.268742159973</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159773</v>
+        <v>476.7193540159779</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285362</v>
+        <v>530.4421353285368</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383307</v>
+        <v>539.0252436383314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113112</v>
+        <v>508.9862526113118</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906155</v>
+        <v>434.407990790616</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190746</v>
+        <v>326.222309719075</v>
       </c>
       <c r="R5" t="n">
-        <v>189.761083102553</v>
+        <v>189.7610831025533</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639409</v>
+        <v>68.83856774639418</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.2239530580292</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442795</v>
+        <v>0.2416713294442799</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546265</v>
+        <v>1.616319510546267</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395999</v>
+        <v>15.61024369396</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328151</v>
+        <v>55.64959718328157</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433208</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499204</v>
+        <v>261.0001553499207</v>
       </c>
       <c r="L6" t="n">
-        <v>350.946918287688</v>
+        <v>350.9469182876884</v>
       </c>
       <c r="M6" t="n">
-        <v>409.53850054499</v>
+        <v>409.5385005449905</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345745</v>
+        <v>420.377766034575</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587862</v>
+        <v>384.5635284587866</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077337</v>
+        <v>308.6461353077341</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970987</v>
+        <v>206.3217676970989</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670743</v>
+        <v>100.3535920670744</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633083</v>
+        <v>30.02242599633086</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807093</v>
+        <v>6.514901886807101</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043596</v>
+        <v>0.1063368099043597</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950638</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952476</v>
+        <v>12.04778623952477</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720642</v>
+        <v>40.75058985720647</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390998</v>
+        <v>95.80330632391009</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029921</v>
+        <v>157.4342619029923</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165519</v>
+        <v>201.4616525165521</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706802</v>
+        <v>212.4130655706804</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379552</v>
+        <v>207.3623576379555</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488046</v>
+        <v>191.5326998488048</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170116</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.4684652886121</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843496</v>
+        <v>60.92878398843503</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544881</v>
+        <v>23.61513928544884</v>
       </c>
       <c r="T7" t="n">
-        <v>5.78983592287999</v>
+        <v>5.789835922879996</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548933</v>
+        <v>0.07391279901548943</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32324,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33278,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563564</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953983</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34454,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.262887399594241</v>
       </c>
       <c r="K3" t="n">
-        <v>101.5721424897439</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108175</v>
+        <v>75.34849544108209</v>
       </c>
       <c r="K5" t="n">
-        <v>164.178891114992</v>
+        <v>164.1788911149925</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459901</v>
+        <v>240.9529390459907</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012635</v>
+        <v>300.0959021012641</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417398</v>
+        <v>309.6121800417405</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896245</v>
+        <v>278.8880411896251</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353459</v>
+        <v>203.1749950353465</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446251</v>
+        <v>103.9166198446255</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665393</v>
+        <v>151.960156817063</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755614</v>
+        <v>123.1587163755617</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078138</v>
+        <v>212.3925385078143</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229717</v>
+        <v>267.4044666229722</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512412</v>
+        <v>289.0360539512417</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143417</v>
+        <v>241.9672840143422</v>
       </c>
       <c r="P6" t="n">
-        <v>239.7268436047209</v>
+        <v>174.6717278934039</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469263</v>
+        <v>215.3813617178363</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144311552</v>
+        <v>0.1957579144312831</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237204</v>
+        <v>2.444126207237318</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.1647700771094</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768683</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325208</v>
+        <v>251.996942532521</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171838</v>
+        <v>251.4945300171841</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628442</v>
+        <v>216.1178277628445</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.1678722819051</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691754</v>
+        <v>27.30642203691768</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>528.9386420741746</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35270,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977097</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38102,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>834093.1556815422</v>
+        <v>790753.5656588322</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367735</v>
+        <v>6542240.186367736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9165568.271686183</v>
+        <v>9165568.271686181</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9725659584294</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>232.2791855053264</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>75.32976229515084</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.1761468135354</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.95673252054282</v>
+        <v>27.32855124455427</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>134.0862428869831</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>190.6384919154523</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323767</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539828</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>7.222631421580628</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813351</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>179.0850583570496</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
         <v>225.8350452710705</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700518</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887345</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>133.5187093525395</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>202.3152480123059</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>279.7359080595637</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>213.1152980938493</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1350,7 +1350,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.78116022224987</v>
+        <v>188.2295548670235</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>151.6927290681311</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.66221878632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>205.5261888872233</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041388</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>35.25179469562294</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>396.2429621606558</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>10.742978998509</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T19" t="n">
-        <v>203.0714952237261</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>328.3712303094042</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>57.92518451681195</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.75769145492383</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>210.1089145855752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>310.0360877169932</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680958</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>6.380068175848154</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>74.70459810936892</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>60.48910589095144</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>168.1158122680967</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>7.601081015447011</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>149.2419515106229</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94739929677974</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041362</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.5867442799587</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>151.692729068132</v>
       </c>
       <c r="F32" t="n">
-        <v>127.5532942524965</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>13.02719212039609</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>260.696886152734</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>84.36427925043594</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>372.585129545121</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.9968647819697</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>130.7150969335218</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H38" t="n">
-        <v>252.9985976639354</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>224.7562560951387</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041388</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>128.2808324720654</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896182</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>34.82037800654545</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>282.3939120001642</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>46.50187133648316</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388466</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4366,16 +4366,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246.1221890463726</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="C3" t="n">
-        <v>246.1221890463726</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="D3" t="n">
-        <v>97.18777938512136</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="E3" t="n">
-        <v>97.18777938512136</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="F3" t="n">
-        <v>97.18777938512136</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>97.18777938512136</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>26.30736892571879</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>100.991389695173</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519934</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781153</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>246.1221890463726</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>246.1221890463726</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="X3" t="n">
-        <v>246.1221890463726</v>
+        <v>362.0967104438882</v>
       </c>
       <c r="Y3" t="n">
-        <v>246.1221890463726</v>
+        <v>362.0967104438882</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.8069210092332</v>
+        <v>217.6378905447489</v>
       </c>
       <c r="C4" t="n">
-        <v>493.8069210092332</v>
+        <v>48.70170761684199</v>
       </c>
       <c r="D4" t="n">
-        <v>493.8069210092332</v>
+        <v>48.70170761684199</v>
       </c>
       <c r="E4" t="n">
-        <v>460.5172922006041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092332</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>493.8069210092332</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V4" t="n">
-        <v>493.8069210092332</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="W4" t="n">
-        <v>493.8069210092332</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="X4" t="n">
-        <v>493.8069210092332</v>
+        <v>620.0789345185187</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.8069210092332</v>
+        <v>399.2863553749886</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1049.492102159346</v>
+        <v>1340.503164297755</v>
       </c>
       <c r="C5" t="n">
-        <v>1049.492102159346</v>
+        <v>971.5406473573437</v>
       </c>
       <c r="D5" t="n">
-        <v>1049.492102159346</v>
+        <v>836.0999979765527</v>
       </c>
       <c r="E5" t="n">
-        <v>1049.492102159346</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="F5" t="n">
-        <v>856.9279689114147</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244637</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705477</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135755</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780288</v>
+        <v>108.4604468780281</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818714</v>
+        <v>270.9975490818697</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374018</v>
+        <v>509.5409587373994</v>
       </c>
       <c r="M5" t="n">
-        <v>806.635901817653</v>
+        <v>806.6359018176496</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058976</v>
+        <v>1113.151960058971</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836705</v>
+        <v>1389.251120836699</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921698</v>
+        <v>1590.394365921691</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567877</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567877</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567877</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567877</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="U5" t="n">
-        <v>1439.631434135158</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="V5" t="n">
-        <v>1439.631434135158</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="W5" t="n">
-        <v>1439.631434135158</v>
+        <v>1340.503164297755</v>
       </c>
       <c r="X5" t="n">
-        <v>1439.631434135158</v>
+        <v>1340.503164297755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1049.492102159346</v>
+        <v>1340.503164297755</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.95335120765402</v>
+        <v>357.2528753337357</v>
       </c>
       <c r="C6" t="n">
-        <v>67.95335120765402</v>
+        <v>182.7998460526086</v>
       </c>
       <c r="D6" t="n">
-        <v>67.95335120765402</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="E6" t="n">
-        <v>67.95335120765402</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="F6" t="n">
-        <v>67.95335120765402</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765402</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765402</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135755</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J6" t="n">
-        <v>184.3059916402499</v>
+        <v>59.47586665324461</v>
       </c>
       <c r="K6" t="n">
-        <v>306.233120852056</v>
+        <v>181.4029958650501</v>
       </c>
       <c r="L6" t="n">
-        <v>516.5017339747922</v>
+        <v>391.6716089877855</v>
       </c>
       <c r="M6" t="n">
-        <v>781.2321559315346</v>
+        <v>656.402030944527</v>
       </c>
       <c r="N6" t="n">
-        <v>1067.377849343264</v>
+        <v>1075.486806287575</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.925460517463</v>
+        <v>1315.034417461773</v>
       </c>
       <c r="P6" t="n">
-        <v>1479.850471131932</v>
+        <v>1487.959428076242</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.07801923259</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567877</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843123</v>
+        <v>1693.271819567869</v>
       </c>
       <c r="T6" t="n">
-        <v>1369.286159502669</v>
+        <v>1497.665933903208</v>
       </c>
       <c r="U6" t="n">
-        <v>1141.169952158153</v>
+        <v>1269.549726558693</v>
       </c>
       <c r="V6" t="n">
-        <v>906.0178439264105</v>
+        <v>1034.39761832695</v>
       </c>
       <c r="W6" t="n">
-        <v>651.7804871982088</v>
+        <v>780.1602615987483</v>
       </c>
       <c r="X6" t="n">
-        <v>443.928986992676</v>
+        <v>572.3087613932155</v>
       </c>
       <c r="Y6" t="n">
-        <v>236.168688227722</v>
+        <v>364.5484626282616</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>616.6293058230808</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="C7" t="n">
-        <v>616.6293058230808</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="D7" t="n">
-        <v>616.6293058230808</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="E7" t="n">
-        <v>616.6293058230808</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246572</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590867</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135755</v>
+        <v>33.86543639135739</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652249</v>
+        <v>36.28512133652212</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128608</v>
+        <v>170.0982437128601</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119605</v>
+        <v>396.8594047119592</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191563</v>
+        <v>646.3363778191546</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361685</v>
+        <v>895.3159625361664</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021384</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580471</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397019</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933651</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="S7" t="n">
-        <v>975.8964400230212</v>
+        <v>1295.862163397016</v>
       </c>
       <c r="T7" t="n">
-        <v>751.4966890074642</v>
+        <v>1071.462412381459</v>
       </c>
       <c r="U7" t="n">
-        <v>616.6293058230808</v>
+        <v>782.3259310102715</v>
       </c>
       <c r="V7" t="n">
-        <v>616.6293058230808</v>
+        <v>527.6414428043846</v>
       </c>
       <c r="W7" t="n">
-        <v>616.6293058230808</v>
+        <v>238.224272767424</v>
       </c>
       <c r="X7" t="n">
-        <v>616.6293058230808</v>
+        <v>238.224272767424</v>
       </c>
       <c r="Y7" t="n">
-        <v>616.6293058230808</v>
+        <v>33.86543639135739</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1857.810682795506</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C8" t="n">
-        <v>1488.848165855094</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D8" t="n">
-        <v>1130.582467248344</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E8" t="n">
-        <v>744.7942146500993</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F8" t="n">
-        <v>333.8083098604918</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G8" t="n">
-        <v>333.8083098604918</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800313</v>
@@ -4810,13 +4810,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.228484740841</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056586</v>
+        <v>2106.577233583056</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056586</v>
+        <v>1753.808578312942</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795506</v>
+        <v>1380.342820051862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795506</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.916702154261</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488054</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756905</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182526</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6740181205796</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800313</v>
@@ -4889,22 +4889,22 @@
         <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101002</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963533</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1343.569531118699</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.50262973664</v>
+        <v>1676.586023648285</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400156</v>
@@ -4916,19 +4916,19 @@
         <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800313</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
         <v>51.24678656800313</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485143</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426274</v>
+        <v>927.720553932932</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056668</v>
+        <v>638.3033838959714</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764946</v>
+        <v>410.313832997954</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800313</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5235,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>927.3065133708208</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368016</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.908724368016</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200353</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.719419668211</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.253661407131</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>1916.432231215801</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5433,7 +5433,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,19 +5460,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.606831754061</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>764.341133147311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>764.341133147311</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>764.341133147311</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.2814163499067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>528.3452334219999</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218343</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.485941467111</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1241.383074592754</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>986.6985863868674</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>697.2814163499067</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>697.2814163499067</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>697.2814163499067</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.038871968309</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="C20" t="n">
-        <v>869.0763550278973</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D20" t="n">
-        <v>510.8106564211468</v>
+        <v>1081.572080845301</v>
       </c>
       <c r="E20" t="n">
-        <v>125.0224038229026</v>
+        <v>695.7838282470568</v>
       </c>
       <c r="F20" t="n">
-        <v>125.0224038229026</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>125.0224038229026</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2320.988771034578</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034578</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622243</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.95903803985</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>2320.988771034578</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>2320.988771034578</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X22" t="n">
-        <v>2320.988771034578</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y22" t="n">
-        <v>2320.988771034578</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1832.276849100054</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1463.314332159642</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1105.048633552892</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>719.2603809546476</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>719.2603809546476</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V23" t="n">
-        <v>2961.784676410102</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W23" t="n">
-        <v>2609.016021139988</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2609.016021139988</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2218.876689164176</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1640.204086189706</v>
+        <v>628.7269654071706</v>
       </c>
       <c r="C25" t="n">
-        <v>1471.267903261799</v>
+        <v>459.7907824792637</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>309.674143066928</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>3103.839206178697</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>2814.73633930434</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V25" t="n">
-        <v>2560.051851098453</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W25" t="n">
-        <v>2270.634681061493</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X25" t="n">
-        <v>2042.645130163475</v>
+        <v>1031.16800938094</v>
       </c>
       <c r="Y25" t="n">
-        <v>1821.852551019945</v>
+        <v>810.3754302374103</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6229,7 +6229,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,7 +6293,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
@@ -6305,34 +6305,34 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962485</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034578</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622242</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.959038039849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.322864763051</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U28" t="n">
-        <v>2671.573418792725</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>2671.573418792725</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>2671.573418792725</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X28" t="n">
-        <v>2671.573418792725</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.573418792725</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.66971909763</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926356</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030281</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G29" t="n">
         <v>66.51211643218339</v>
@@ -6469,7 +6469,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6478,7 +6478,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>880.2242361621292</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C31" t="n">
-        <v>880.2242361621292</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621292</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>880.2242361621292</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>880.2242361621292</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.2242361621292</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1308.370295943748</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C32" t="n">
-        <v>939.4077790033361</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D32" t="n">
-        <v>581.1420803965857</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="E32" t="n">
-        <v>195.3538277983415</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218342</v>
@@ -6703,22 +6703,22 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2405.758056700423</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>2236.821873772516</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>2086.70523436018</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>1938.792140777787</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>1791.902193279877</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1624.199356654596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>1477.982169872454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.18865157221</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X34" t="n">
-        <v>2808.199100674193</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y34" t="n">
-        <v>2587.406521530663</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3034.411630306084</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V35" t="n">
-        <v>2703.348742962513</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W35" t="n">
-        <v>2350.580087692399</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X35" t="n">
-        <v>1977.114329431319</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1772.140244377708</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C37" t="n">
-        <v>1603.204061449801</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>1603.204061449801</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>1603.204061449801</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>1603.204061449801</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366699</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>2946.672497492342</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>2691.988009286456</v>
+        <v>1284.38961433566</v>
       </c>
       <c r="W37" t="n">
-        <v>2402.570839249495</v>
+        <v>994.9724442986994</v>
       </c>
       <c r="X37" t="n">
-        <v>2174.581288351477</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y37" t="n">
-        <v>1953.788709207947</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.363819949361</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.401303008949</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1356044021984</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1356044021984</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1356044021984</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0631542471949</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.568750250374</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.102991989294</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.963660013482</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7332,19 +7332,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368017</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621301</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251695</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271522</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.0249360836221</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038045</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097633</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490883</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926384</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030308</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7426,37 +7426,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609172</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609172</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339058</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077978</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102167</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7560,28 +7560,28 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1516.201608216216</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1227.09874134186</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V43" t="n">
-        <v>972.4142531359726</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W43" t="n">
-        <v>682.9970830990119</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X43" t="n">
-        <v>455.0075322009945</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.2149530574645</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.03887196831</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.03887196831</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.03887196831</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>852.2506193700656</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>441.264714580458</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,19 +7648,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939509</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269323</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008243</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.638712032432</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.3234075408147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.314107919012507</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157885</v>
+        <v>25.82445471157931</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.2819009407266</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>149.0413681067589</v>
+        <v>141.04626042087</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688976</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>162.007309792134</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.9556134883073923</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22552,22 +22552,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.903479783282</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>153.9587531507271</v>
       </c>
     </row>
     <row r="3">
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24.14955797605892</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>24.51883634738425</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>113.4772301260263</v>
+        <v>119.1054114020149</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -22770,10 +22770,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>220.5967987336999</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>216.2375538262591</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539855</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398512</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>159.3105522282867</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22880,10 +22880,10 @@
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253646</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813363</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>14.56476845096492</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>152.7264072049359</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>16.26940533978885</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>21.28264450284166</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247044</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>173.1226405622043</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298449</v>
+        <v>30.35509848507127</v>
       </c>
     </row>
     <row r="11">
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>202.9903125525519</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>46.61145443660473</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>350.9861439604306</v>
       </c>
     </row>
     <row r="15">
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>105.2833318990671</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.6787634927976</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>317.0092794716259</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T19" t="n">
-        <v>16.47745405244314</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>78.50481543230723</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>236.6825798705085</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>100.8856379364603</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>82.87935969080615</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2354048423642</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>71.72936453720025</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,19 +24414,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>346.38693985076</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>141.0143920027653</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>136.96988669499</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>292.3254924742278</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493172</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.02872873825365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>230.2376410041298</v>
       </c>
       <c r="F32" t="n">
-        <v>279.322751489215</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>83.32522828944201</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>25.51495205287893</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>166.630892708466</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>13.65280911093254</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>29.02894347705848</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>121.4225463903062</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H38" t="n">
-        <v>41.60916672338507</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.074288727013</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>27.38138722868928</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493146</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>82.87935969080525</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>91.26811680410381</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>376.101347646908</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>45.35834646997074</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.7449497621447</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623484.8426188091</v>
+        <v>623484.8426188076</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770100.8188680862</v>
+        <v>770100.8188680863</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839652</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839652</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214164.910256968</v>
+        <v>214164.9102569681</v>
       </c>
       <c r="C2" t="n">
-        <v>259834.9292344164</v>
+        <v>259834.9292344156</v>
       </c>
       <c r="D2" t="n">
         <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739529</v>
+        <v>176672.6241739508</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381905</v>
+        <v>223886.309381907</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640866</v>
+        <v>41076.98154640815</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946784</v>
+        <v>54988.29121946814</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341468</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>15438.57384129047</v>
       </c>
       <c r="C4" t="n">
-        <v>17555.97061758843</v>
+        <v>17555.97061758839</v>
       </c>
       <c r="D4" t="n">
         <v>20992.13942082914</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26438,7 +26438,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="J4" t="n">
         <v>10990.29103211609</v>
@@ -26456,7 +26456,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
-        <v>10990.29103211607</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923135</v>
+        <v>75746.8716792312</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26502,16 +26502,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139331</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-544409.4473797817</v>
+        <v>-554737.1625665332</v>
       </c>
       <c r="C6" t="n">
-        <v>-10140.53723635629</v>
+        <v>-18293.4896146564</v>
       </c>
       <c r="D6" t="n">
-        <v>-16546.00922355488</v>
+        <v>-21773.47194544856</v>
       </c>
       <c r="E6" t="n">
-        <v>90677.34250876657</v>
+        <v>87201.15321070609</v>
       </c>
       <c r="F6" t="n">
-        <v>272750.3223259574</v>
+        <v>269274.1330278961</v>
       </c>
       <c r="G6" t="n">
-        <v>272750.3223259573</v>
+        <v>269274.133027896</v>
       </c>
       <c r="H6" t="n">
-        <v>272750.3223259571</v>
+        <v>269274.1330278962</v>
       </c>
       <c r="I6" t="n">
-        <v>272750.3223259573</v>
+        <v>269274.1330278963</v>
       </c>
       <c r="J6" t="n">
-        <v>203751.1679068432</v>
+        <v>200274.978608782</v>
       </c>
       <c r="K6" t="n">
-        <v>231673.3407795485</v>
+        <v>228197.151481488</v>
       </c>
       <c r="L6" t="n">
-        <v>217762.0311064895</v>
+        <v>214285.841808428</v>
       </c>
       <c r="M6" t="n">
-        <v>225198.0565325425</v>
+        <v>221721.8672344816</v>
       </c>
       <c r="N6" t="n">
-        <v>272750.322325957</v>
+        <v>269274.133027896</v>
       </c>
       <c r="O6" t="n">
-        <v>272750.3223259574</v>
+        <v>269274.1330278962</v>
       </c>
       <c r="P6" t="n">
-        <v>272750.3223259572</v>
+        <v>269274.1330278959</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908084</v>
+        <v>751.4467899908067</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26773,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919694</v>
+        <v>423.3179548919674</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.39177622133</v>
+        <v>137.3917762213285</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267311</v>
+        <v>182.6181021267328</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,13 +26989,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,43 +27011,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904632</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080697</v>
+        <v>217.2668772080717</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904629</v>
+        <v>159.6040748904609</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080701</v>
+        <v>217.2668772080719</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022531</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904632</v>
+        <v>159.6040748904612</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080697</v>
+        <v>217.2668772080717</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053499</v>
+        <v>3.020891618053492</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9377062833904</v>
+        <v>30.93770628339033</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050076</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677684</v>
+        <v>256.3943999677678</v>
       </c>
       <c r="K5" t="n">
-        <v>384.268742159973</v>
+        <v>384.2687421599722</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159779</v>
+        <v>476.7193540159768</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285368</v>
+        <v>530.4421353285356</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383314</v>
+        <v>539.0252436383302</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113118</v>
+        <v>508.9862526113107</v>
       </c>
       <c r="P5" t="n">
-        <v>434.407990790616</v>
+        <v>434.407990790615</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.222309719075</v>
+        <v>326.2223097190742</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025533</v>
+        <v>189.7610831025528</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639418</v>
+        <v>68.83856774639402</v>
       </c>
       <c r="T5" t="n">
-        <v>13.2239530580292</v>
+        <v>13.22395305802917</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442799</v>
+        <v>0.2416713294442793</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546267</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369396</v>
+        <v>15.61024369395997</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328157</v>
+        <v>55.64959718328144</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433208</v>
+        <v>152.7067481433205</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499207</v>
+        <v>261.0001553499201</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876884</v>
+        <v>350.9469182876877</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449905</v>
+        <v>409.5385005449896</v>
       </c>
       <c r="N6" t="n">
-        <v>420.377766034575</v>
+        <v>420.3777660345741</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587866</v>
+        <v>384.5635284587858</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077341</v>
+        <v>308.6461353077335</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970989</v>
+        <v>206.3217676970985</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670744</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633086</v>
+        <v>30.0224259963308</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807101</v>
+        <v>6.514901886807086</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043597</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950638</v>
+        <v>1.355067981950635</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952477</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720647</v>
+        <v>40.75058985720638</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632391009</v>
+        <v>95.80330632390988</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029923</v>
+        <v>157.4342619029919</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165521</v>
+        <v>201.4616525165517</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706804</v>
+        <v>212.4130655706799</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379555</v>
+        <v>207.362357637955</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488048</v>
+        <v>191.5326998488044</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170116</v>
+        <v>163.8893130170113</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886121</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843503</v>
+        <v>60.92878398843489</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544884</v>
+        <v>23.61513928544878</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879996</v>
+        <v>5.789835922879984</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548943</v>
+        <v>0.07391279901548926</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563555</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233468</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.262887399594241</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108209</v>
+        <v>75.34849544108152</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149925</v>
+        <v>164.1788911149916</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459907</v>
+        <v>240.9529390459896</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012641</v>
+        <v>300.0959021012629</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417405</v>
+        <v>309.6121800417392</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896251</v>
+        <v>278.888041189624</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353465</v>
+        <v>203.1749950353455</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446255</v>
+        <v>103.9166198446248</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.960156817063</v>
+        <v>25.86912147665376</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755617</v>
+        <v>123.1587163755611</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078143</v>
+        <v>212.3925385078135</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229722</v>
+        <v>267.4044666229713</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512417</v>
+        <v>423.3179548919674</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143422</v>
+        <v>241.9672840143413</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934039</v>
+        <v>174.6717278934032</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.3813617178363</v>
+        <v>207.386254031947</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144312831</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237318</v>
+        <v>2.444126207237105</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771094</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768683</v>
+        <v>229.0516777768678</v>
       </c>
       <c r="M7" t="n">
-        <v>251.996942532521</v>
+        <v>251.9969425325205</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171841</v>
+        <v>251.4945300171836</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628445</v>
+        <v>216.117827762844</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819051</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691768</v>
+        <v>27.30642203691743</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>528.9386420741746</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844305</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013285</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790753.5656588322</v>
+        <v>828224.7520043926</v>
       </c>
     </row>
     <row r="7">
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>244.8448976285503</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.2791855053264</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>5.567462636280746</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1761468135354</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.32855124455427</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.13625793941118</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>134.0862428869831</v>
+        <v>203.2220217446485</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.2818458970816</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539862</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.222631421580628</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>28.07037041162532</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.9277650710606</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.3152480123059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>249.0226240560371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>213.1152980938493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>150.749683848432</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1350,7 +1350,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.2295548670235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>151.6927290681311</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>101.8907566840635</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.34924850973032</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>205.5261888872233</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>298.4273483549589</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>35.25179469562294</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>114.2656173771021</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>157.1290712416209</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>34.16966515648344</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>10.742978998509</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>142.9446842106542</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>328.3712303094042</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>265.931805993755</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492383</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>110.7601806687364</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>136.0033847775993</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>168.1158122680958</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>74.70459810936892</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0.421820516127545</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,16 +2557,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>60.48910589095144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>137.0709134223692</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.601081015447011</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>70.8276411951062</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>72.94739929677974</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>195.550431065687</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192027</v>
+        <v>80.21797703169378</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>151.692729068132</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>85.85883363046771</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>121.4542291304339</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>260.696886152734</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>230.1832539220404</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>372.585129545121</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25.01141625626332</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>130.7150969335218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3517065765369</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>120.6088074159611</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>27.6335547923845</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>224.7562560951387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>28.93382893562071</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>168.1158122680967</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>104.0438938896182</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>196.9904511790246</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>312.4121655669647</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>282.3939120001642</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>139.6821624261907</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,16 +4363,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>534.7928453799757</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716687</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="X2" t="n">
-        <v>255.7225503044907</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="Y2" t="n">
         <v>21.0971104001205</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.0967104438882</v>
+        <v>220.020678281358</v>
       </c>
       <c r="C3" t="n">
-        <v>362.0967104438882</v>
+        <v>220.020678281358</v>
       </c>
       <c r="D3" t="n">
-        <v>362.0967104438882</v>
+        <v>71.08626862010669</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4412,22 +4412,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428383</v>
+        <v>709.4101432413023</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110956</v>
+        <v>474.2580350095596</v>
       </c>
       <c r="W3" t="n">
-        <v>362.0967104438882</v>
+        <v>220.020678281358</v>
       </c>
       <c r="X3" t="n">
-        <v>362.0967104438882</v>
+        <v>220.020678281358</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.0967104438882</v>
+        <v>220.020678281358</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.6378905447489</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>48.70170761684199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>48.70170761684199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1015.323946329852</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>808.5369117403635</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165361</v>
+        <v>808.5369117403635</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165361</v>
+        <v>542.1592551731854</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165361</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="W4" t="n">
-        <v>848.0684854165361</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>620.0789345185187</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>399.2863553749886</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.503164297755</v>
+        <v>1161.535010986145</v>
       </c>
       <c r="C5" t="n">
-        <v>971.5406473573437</v>
+        <v>1161.535010986145</v>
       </c>
       <c r="D5" t="n">
-        <v>836.0999979765527</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="E5" t="n">
-        <v>450.3117453783084</v>
+        <v>956.2602415471065</v>
       </c>
       <c r="F5" t="n">
-        <v>450.3117453783084</v>
+        <v>545.274336757499</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135739</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135739</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780281</v>
+        <v>108.4604468780277</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818697</v>
+        <v>270.9975490818693</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373994</v>
+        <v>509.5409587373987</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176496</v>
+        <v>806.6359018176483</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058971</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836699</v>
+        <v>1389.251120836698</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921691</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567869</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567869</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567869</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567869</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="W5" t="n">
-        <v>1340.503164297755</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="X5" t="n">
-        <v>1340.503164297755</v>
+        <v>1551.674342961957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1340.503164297755</v>
+        <v>1161.535010986145</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357.2528753337357</v>
+        <v>221.4568009035051</v>
       </c>
       <c r="C6" t="n">
-        <v>182.7998460526086</v>
+        <v>193.1028913968129</v>
       </c>
       <c r="D6" t="n">
-        <v>33.86543639135739</v>
+        <v>193.1028913968129</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324461</v>
+        <v>184.3059916402492</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650501</v>
+        <v>306.2331208520546</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877855</v>
+        <v>516.5017339747897</v>
       </c>
       <c r="M6" t="n">
-        <v>656.402030944527</v>
+        <v>781.232155931531</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.486806287575</v>
+        <v>1067.377849343259</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.034417461773</v>
+        <v>1306.925460517457</v>
       </c>
       <c r="P6" t="n">
-        <v>1487.959428076242</v>
+        <v>1479.850471131926</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567869</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567869</v>
+        <v>1550.180157843113</v>
       </c>
       <c r="T6" t="n">
-        <v>1497.665933903208</v>
+        <v>1354.574272178452</v>
       </c>
       <c r="U6" t="n">
-        <v>1269.549726558693</v>
+        <v>1126.458064833936</v>
       </c>
       <c r="V6" t="n">
-        <v>1034.39761832695</v>
+        <v>891.3059566021934</v>
       </c>
       <c r="W6" t="n">
-        <v>780.1602615987483</v>
+        <v>637.0685998739918</v>
       </c>
       <c r="X6" t="n">
-        <v>572.3087613932155</v>
+        <v>429.217099668459</v>
       </c>
       <c r="Y6" t="n">
-        <v>364.5484626282616</v>
+        <v>221.4568009035051</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135739</v>
+        <v>933.4785823333808</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135739</v>
+        <v>764.5423994054739</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135739</v>
+        <v>764.5423994054739</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135739</v>
+        <v>616.6293058230808</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135739</v>
+        <v>469.7393583251704</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135739</v>
+        <v>301.4202559246572</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135739</v>
+        <v>149.7239061590866</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135739</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652212</v>
+        <v>36.28512133652203</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128601</v>
+        <v>170.0982437128599</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119592</v>
+        <v>396.8594047119589</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191546</v>
+        <v>646.3363778191541</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361664</v>
+        <v>895.3159625361658</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397016</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397016</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.462412381459</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="U7" t="n">
-        <v>782.3259310102715</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="V7" t="n">
-        <v>527.6414428043846</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="W7" t="n">
-        <v>238.224272767424</v>
+        <v>1115.127047163621</v>
       </c>
       <c r="X7" t="n">
-        <v>238.224272767424</v>
+        <v>1115.127047163621</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.86543639135739</v>
+        <v>1115.127047163621</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>778.4750021151654</v>
+        <v>1457.824646659613</v>
       </c>
       <c r="C8" t="n">
-        <v>409.5124851747536</v>
+        <v>1457.824646659613</v>
       </c>
       <c r="D8" t="n">
-        <v>51.24678656800313</v>
+        <v>1099.558948052862</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800313</v>
+        <v>713.7706954546179</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800313</v>
+        <v>302.7847906650103</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800313</v>
@@ -4810,13 +4810,13 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.228484740841</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051862</v>
+        <v>1457.824646659613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1165.074842179287</v>
+        <v>1457.824646659613</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800313</v>
@@ -4886,22 +4886,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118699</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648285</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400156</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800313</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1484.173712146789</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1261.195231341524</v>
       </c>
       <c r="U10" t="n">
-        <v>927.720553932932</v>
+        <v>972.0768938453617</v>
       </c>
       <c r="V10" t="n">
-        <v>927.720553932932</v>
+        <v>717.3924056394749</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959714</v>
+        <v>427.9752356025143</v>
       </c>
       <c r="X10" t="n">
-        <v>410.313832997954</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.18296949591</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565137</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.379050624725</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.154071768027</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>995.4904276233233</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>584.5045228337158</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>169.4320726787122</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.54649786615</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.08073960507</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.941407629259</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.4482993600903</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>143.6325694723151</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>927.3065133708208</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>637.8893433338601</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>637.8893433338601</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.09676419033</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1529.83239115168</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C14" t="n">
-        <v>1160.869874211268</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.869874211268</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E14" t="n">
-        <v>775.0816216130238</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.040104645724</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y14" t="n">
-        <v>1916.432231215801</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="15">
@@ -5348,16 +5348,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.044275313594</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.044275313594</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.044275313594</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>927.0852846661717</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>516.0993798765642</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>101.0269297215606</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2744.955434856437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1241.044369546818</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>986.3598813409312</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>969.7403902419976</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1808.800296392463</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1439.837779452052</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>1081.572080845301</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>695.7838282470568</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267228</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923657</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653543</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392463</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392463</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1815.415577716032</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1593.648962285558</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1304.546095411201</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1049.861607205314</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836216</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>628.7269654071706</v>
+        <v>532.8809675997582</v>
       </c>
       <c r="C25" t="n">
-        <v>459.7907824792637</v>
+        <v>363.9447846718513</v>
       </c>
       <c r="D25" t="n">
-        <v>309.674143066928</v>
+        <v>213.8281452595155</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>213.8281452595155</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.93819776160518</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,10 +6168,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
         <v>1735.608663915319</v>
@@ -6180,19 +6180,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1259.157560278958</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.157560278958</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.16800938094</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y25" t="n">
-        <v>810.3754302374103</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1311.909787855437</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C26" t="n">
-        <v>942.9472709150257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D26" t="n">
-        <v>584.6815723082752</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>584.6815723082752</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
         <v>523.5814653477182</v>
@@ -6223,55 +6223,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6326,31 +6326,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.8928126690271</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C28" t="n">
-        <v>241.8928126690271</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D28" t="n">
-        <v>234.2149530574645</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408143</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>644.3338566427969</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.5412774992668</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1295.236214140705</v>
+        <v>1792.126722677732</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1423.16420573732</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1064.89850713057</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>679.1102545323254</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218339</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,7 +6475,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939507</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204826</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218339</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218339</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1530.147236421175</v>
+        <v>1654.580404287345</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565138</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624726</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>1343.379050624726</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866151</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605071</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.94140762926</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>339.3097953702099</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>339.3097953702099</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>189.1931559578742</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>189.1931559578742</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6891,19 +6891,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1250.51186045178</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>1250.51186045178</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W34" t="n">
-        <v>1250.51186045178</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>520.9582602004497</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1661.795585684488</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1292.833068744076</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>2776.829068225498</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>2776.829068225498</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2048.39542574861</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.5418494269122</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
         <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1284.38961433566</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>994.9724442986994</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>766.9828934006821</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>546.190314257152</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565138</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624726</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179758</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197315</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301239</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7195,7 +7195,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7210,16 +7210,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866151</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605071</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.94140762926</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>561.3907139632884</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>392.4545310353815</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>242.3378916230457</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>94.42479804065263</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658018</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V40" t="n">
-        <v>1478.501411349798</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W40" t="n">
-        <v>1478.501411349798</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.51186045178</v>
+        <v>963.8317579370582</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.71928130825</v>
+        <v>743.0391787935281</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F41" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3155.791869823214</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,10 +7508,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,10 +7590,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1735.608663915319</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1408.747206172099</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1154.062717966212</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>864.6455479292516</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>636.6559970312343</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="Y43" t="n">
-        <v>415.8634178877041</v>
+        <v>481.6572696514548</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.35562273557</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
@@ -7651,13 +7651,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
@@ -7681,19 +7681,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V44" t="n">
-        <v>2470.560553036583</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W44" t="n">
-        <v>2470.560553036583</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2097.094794775503</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.955462799692</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D46" t="n">
         <v>66.51211643218343</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1530.147236421175</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157931</v>
+        <v>25.82445471157942</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2819009407266</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>141.04626042087</v>
+        <v>149.2371260211878</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688976</v>
+        <v>45.32591189688982</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9556134883073923</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154985</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>104.3960710888627</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.9587531507271</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -22631,19 +22631,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>152.0776178191202</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>24.51883634738425</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>119.1054114020149</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22728,7 +22728,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>88.36834494425274</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>220.5967987336999</v>
+        <v>151.4610198760345</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539855</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.3105522282867</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>144.6381285766904</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,10 +22880,10 @@
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813363</v>
+        <v>33.74703566813366</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>107.5952332655304</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.26940533978885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>162.5250787169169</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -23077,10 +23077,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>173.1226405622043</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23196,7 +23196,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,7 +23229,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.91277651330549</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.35509848507127</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>202.9903125525519</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>192.7170077032569</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>69.07179951320093</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>46.61145443660473</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>56.25569326572406</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>350.9861439604306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>105.2833318990671</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>95.00857208220711</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>260.438099230837</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>317.0092794716259</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>24.30213688797366</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>78.50481543230723</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>83.30916272365801</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.00884466270549</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>246.7304568858813</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.87935969080615</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>71.72936453720025</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.6039877429007</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>346.38693985076</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>190.6813450477657</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>141.0143920027653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146297</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>292.3254924742278</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>211.3256146760244</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696654</v>
+        <v>139.3309722444754</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>230.2376410041298</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24976,10 +24976,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>263.3821350869453</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>23.96681889249734</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>25.51495205287893</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>20.81191803686161</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.65280911093254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>121.4225463903062</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>263.3821350869437</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>290.3129182374923</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.7874932305467</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>27.38138722868928</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>352.9965411366411</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>82.87935969080525</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>182.1679443159947</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>28.71920421001258</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>69.51820450529704</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>45.35834646997074</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>112.4554808976373</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623484.8426188076</v>
+        <v>623484.8426188073</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770100.8188680863</v>
+        <v>770100.8188680862</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845811.9398839652</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>845811.9398839656</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839653</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839652</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845811.9398839652</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>845811.9398839655</v>
+        <v>845811.9398839652</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>845811.9398839653</v>
+        <v>845811.9398839654</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>845811.9398839654</v>
+        <v>845811.9398839655</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>259834.9292344156</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="G2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="H2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="I2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
         <v>358046.9539194666</v>
@@ -26346,16 +26346,16 @@
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194667</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739508</v>
+        <v>176672.6241739501</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.309381907</v>
+        <v>223886.3093819075</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911414</v>
+        <v>68999.15441911387</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640815</v>
+        <v>41076.98154640807</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946814</v>
+        <v>54988.29121946817</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341468</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>15438.57384129047</v>
       </c>
       <c r="C4" t="n">
-        <v>17555.97061758839</v>
+        <v>17555.97061758841</v>
       </c>
       <c r="D4" t="n">
         <v>20992.13942082914</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26438,10 +26438,10 @@
         <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
+        <v>10990.29103211609</v>
+      </c>
+      <c r="J4" t="n">
         <v>10990.29103211611</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10990.29103211609</v>
       </c>
       <c r="K4" t="n">
         <v>10990.29103211609</v>
@@ -26456,7 +26456,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="O4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="P4" t="n">
         <v>10990.29103211609</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.8716792312</v>
+        <v>75746.87167923116</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,22 +26487,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-554737.1625665332</v>
+        <v>-545442.2188984569</v>
       </c>
       <c r="C6" t="n">
-        <v>-18293.4896146564</v>
+        <v>-10955.83247418428</v>
       </c>
       <c r="D6" t="n">
-        <v>-21773.47194544856</v>
+        <v>-17068.75549574679</v>
       </c>
       <c r="E6" t="n">
-        <v>87201.15321070609</v>
+        <v>90329.72357896066</v>
       </c>
       <c r="F6" t="n">
-        <v>269274.1330278961</v>
+        <v>272402.7033961511</v>
       </c>
       <c r="G6" t="n">
-        <v>269274.133027896</v>
+        <v>272402.7033961509</v>
       </c>
       <c r="H6" t="n">
-        <v>269274.1330278962</v>
+        <v>272402.7033961511</v>
       </c>
       <c r="I6" t="n">
-        <v>269274.1330278963</v>
+        <v>272402.703396151</v>
       </c>
       <c r="J6" t="n">
-        <v>200274.978608782</v>
+        <v>203403.5489770372</v>
       </c>
       <c r="K6" t="n">
-        <v>228197.151481488</v>
+        <v>231325.721849743</v>
       </c>
       <c r="L6" t="n">
-        <v>214285.841808428</v>
+        <v>217414.412176683</v>
       </c>
       <c r="M6" t="n">
-        <v>221721.8672344816</v>
+        <v>224850.4376027361</v>
       </c>
       <c r="N6" t="n">
-        <v>269274.133027896</v>
+        <v>272402.7033961511</v>
       </c>
       <c r="O6" t="n">
-        <v>269274.1330278962</v>
+        <v>272402.703396151</v>
       </c>
       <c r="P6" t="n">
-        <v>269274.1330278959</v>
+        <v>272402.7033961512</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908067</v>
+        <v>751.4467899908062</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919674</v>
+        <v>423.3179548919669</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213285</v>
+        <v>137.3917762213279</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267328</v>
+        <v>182.6181021267332</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,43 +27011,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904612</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080717</v>
+        <v>217.2668772080722</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904609</v>
+        <v>159.6040748904607</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080719</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022531</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904612</v>
+        <v>159.6040748904605</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080717</v>
+        <v>217.2668772080722</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053492</v>
+        <v>3.02089161805349</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339033</v>
+        <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677678</v>
+        <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599722</v>
+        <v>384.268742159972</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159768</v>
+        <v>476.7193540159765</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285356</v>
+        <v>530.4421353285353</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383302</v>
+        <v>539.0252436383298</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113107</v>
+        <v>508.9862526113104</v>
       </c>
       <c r="P5" t="n">
-        <v>434.407990790615</v>
+        <v>434.4079907906147</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190742</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639402</v>
+        <v>68.83856774639398</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442793</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328144</v>
+        <v>55.64959718328141</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499201</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876877</v>
+        <v>350.9469182876874</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449896</v>
+        <v>409.5385005449893</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345741</v>
+        <v>420.3777660345738</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587858</v>
+        <v>384.5635284587855</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970985</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>30.02242599633078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807086</v>
+        <v>6.514901886807082</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
         <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720638</v>
+        <v>40.75058985720635</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390988</v>
+        <v>95.80330632390982</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165517</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706799</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>207.362357637955</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843489</v>
+        <v>60.92878398843486</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544878</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879984</v>
+        <v>5.789835922879981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548926</v>
+        <v>0.07391279901548921</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32007,7 +32007,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
         <v>781.7148990095023</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563555</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.938547087769</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108152</v>
+        <v>75.34849544108135</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149916</v>
+        <v>164.1788911149914</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459896</v>
+        <v>240.9529390459893</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012629</v>
+        <v>300.0959021012626</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417392</v>
+        <v>309.6121800417389</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189624</v>
+        <v>278.8880411896237</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353455</v>
+        <v>203.1749950353452</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446248</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665376</v>
+        <v>151.9601568170625</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755611</v>
+        <v>123.158716375561</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078135</v>
+        <v>212.3925385078132</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229713</v>
+        <v>267.404466622971</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3179548919674</v>
+        <v>289.0360539512404</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143413</v>
+        <v>241.9672840143411</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934032</v>
+        <v>174.671727893403</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.386254031947</v>
+        <v>215.5771196322647</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237105</v>
+        <v>2.444126207237048</v>
       </c>
       <c r="K7" t="n">
         <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325205</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171836</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>216.117827762844</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
         <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691743</v>
+        <v>27.30642203691735</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>397.6203974676414</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
@@ -35266,13 +35266,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>336.3802954844305</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35655,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
